--- a/Project/Report/Turbidity_meter/Voltage to NTU.xlsx
+++ b/Project/Report/Turbidity_meter/Voltage to NTU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Documents/MENG/Courses/UoG_Bioinstrumentation/Project/Report/Turbidity_meter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A21543A-15E3-2344-861C-6F697EC89CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB4C4D-CC0D-F24B-A1AB-E35548B5AF4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{3D6B61D8-B51D-6B47-B64B-E1B92925226C}"/>
+    <workbookView xWindow="6820" yWindow="700" windowWidth="25440" windowHeight="15000" xr2:uid="{3D6B61D8-B51D-6B47-B64B-E1B92925226C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>voltage</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>water</t>
+  </si>
+  <si>
+    <t>1 spoon of brown sugar in water</t>
+  </si>
+  <si>
+    <t>1 spoon of milk powder in water</t>
+  </si>
+  <si>
+    <t>1 spoon of flour in water</t>
   </si>
 </sst>
 </file>
@@ -72,7 +81,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,20 +397,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE48451-4067-5440-B3D1-19C9402DAD50}">
-  <dimension ref="G10:L28"/>
+  <dimension ref="G10:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="44.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="19.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="33.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:16" ht="17" x14ac:dyDescent="0.2">
       <c r="G10" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:16" ht="51" x14ac:dyDescent="0.2">
       <c r="G11" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -427,8 +439,17 @@
       <c r="L11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G12" s="1">
         <v>4</v>
       </c>
@@ -440,11 +461,20 @@
         <f t="shared" ref="I12:I28" si="1">(G12-3.9994)/(-0.0008)</f>
         <v>-0.7499999999999174</v>
       </c>
+      <c r="K12" s="1">
+        <v>3.2275399999999999</v>
+      </c>
       <c r="L12" s="1">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.2">
+        <v>30.51</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.2109399999999999</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2539.06</v>
+      </c>
+    </row>
+    <row r="13" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G13" s="1">
         <v>3.9</v>
       </c>
@@ -456,11 +486,8 @@
         <f t="shared" si="1"/>
         <v>124.25000000000018</v>
       </c>
-      <c r="L13" s="1">
-        <v>10.69</v>
-      </c>
-    </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G14" s="1">
         <v>3.8</v>
       </c>
@@ -473,7 +500,7 @@
         <v>249.25000000000028</v>
       </c>
     </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G15" s="1">
         <v>3.7</v>
       </c>
@@ -486,7 +513,7 @@
         <v>374.24999999999983</v>
       </c>
     </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G16" s="1">
         <v>3.6</v>
       </c>
@@ -497,6 +524,12 @@
       <c r="I16" s="1">
         <f t="shared" si="1"/>
         <v>499.24999999999994</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.24901999999999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3729.25</v>
       </c>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.2">
